--- a/biology/Zoologie/Les_Aventures_de_Impy_le_Dinosaure/Les_Aventures_de_Impy_le_Dinosaure.xlsx
+++ b/biology/Zoologie/Les_Aventures_de_Impy_le_Dinosaure/Les_Aventures_de_Impy_le_Dinosaure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aventures de Impy le Dinosaure (Urmel aus dem Eis), également connu sous le titre international Impy's Island, est un film d'animation allemand pour la jeunesse réalisé par Holger Tappe et Reinhard Klooss, sorti le 3 août 2006 en Allemagne et le 7 mai 2008 en France. Il s'agit d'une adaptation des romans de l'écrivain allemand Max Kruse, Plodoc diplodocus de choc (Urmel aus dem Eis), publiés en France chez Hachette dans la collection Bibliothèque rose.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Horatio Tibberton est un zoologue loufoque qui donne des cours de langue à toute une bande d'animaux étranges : Ping le pingouin, Monty le varan, Shoe le pélican et Solomon l’éléphant de mer.
 Mais un jour un iceberg s'échoue non loin d'eux. Un jeune dinosaure en sort et dit s'appeler Impy. Malheureusement pour lui, le roi Pumponell souhaite le rajouter à son tableau de chasse. Horatio et ses amis vont tout faire pour protéger Impy.
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Les Aventures de Impy le Dinosaure
 Titre original : Urmel aus dem Eis
@@ -590,8 +606,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Voix originales
-Domenic Redl : Urmel
+          <t>Voix originales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Domenic Redl : Urmel
 Anke Engelke : Wutz
 Wigald Boning : Prof. Habakuk Tibatong
 Stefan Krause : Ping
@@ -601,9 +622,43 @@
 Florian Halm : Sami
 Wolfgang Völz : Seelefant
 Kevin Ianotta : Tim Tintenklecks
-Christoph Maria Herbst (en) : Dr. Zwengelmann
-Voix françaises
-Roger Carel : le roi Pumponell
+Christoph Maria Herbst (en) : Dr. Zwengelmann</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les_Aventures_de_Impy_le_Dinosaure</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Aventures_de_Impy_le_Dinosaure</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Roger Carel : le roi Pumponell
 Valentin Maupin : Impy le Dinosaure
 Pierre-François Pistorio : Professeur Tiberton
 Laura Blanc : Peg
@@ -617,31 +672,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Les_Aventures_de_Impy_le_Dinosaure</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Les_Aventures_de_Impy_le_Dinosaure</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Suite</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le Monde merveilleux de Impy (2008) de Holger Tappe et Reinhard Klooss</t>
         </is>
